--- a/test/全量字段.xlsx
+++ b/test/全量字段.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tal/Desktop/新建文件夹 (2)(2)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tal/projects/go/go-zero-review/internal/excelize/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89021EB0-10EC-084F-BF4C-90C260DCC154}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE12DA4-0BE6-E84F-8406-E513414D556E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5800" yWindow="-22320" windowWidth="28800" windowHeight="15940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="173">
   <si>
     <t>字段编码</t>
   </si>
@@ -2421,7 +2421,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2461,6 +2461,9 @@
       <c r="B2" t="s">
         <v>119</v>
       </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
       <c r="E2">
         <v>5</v>
       </c>
